--- a/demo/hero.xlsx
+++ b/demo/hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10600" yWindow="240" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="9340" yWindow="1180" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="hero" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>__type__</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -133,6 +133,14 @@
   </si>
   <si>
     <t>注释行，以~为标记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -525,15 +533,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,8 +563,11 @@
       <c r="G1" t="s">
         <v>21</v>
       </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -578,8 +589,11 @@
       <c r="G2" t="s">
         <v>22</v>
       </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -601,8 +615,11 @@
       <c r="G3" t="s">
         <v>23</v>
       </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -610,12 +627,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>1001</v>
       </c>
@@ -637,8 +654,11 @@
       <c r="G6" t="s">
         <v>24</v>
       </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>1002</v>
       </c>
@@ -660,8 +680,11 @@
       <c r="G7" t="s">
         <v>25</v>
       </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>1003</v>
       </c>
@@ -682,6 +705,9 @@
       </c>
       <c r="G8" t="s">
         <v>26</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
